--- a/PAL1.xlsx
+++ b/PAL1.xlsx
@@ -401,13 +401,6 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <cols>
-    <col min="1" max="1" width="25.83203125" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">

--- a/PAL1.xlsx
+++ b/PAL1.xlsx
@@ -397,9 +397,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="25.83203125" customWidth="1"/>
@@ -407,6 +407,9 @@
     <col min="3" max="3" width="15.83203125" customWidth="1"/>
     <col min="4" max="4" width="15.83203125" customWidth="1"/>
     <col min="5" max="5" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -422,6 +425,15 @@
       <c r="D1" t="str">
         <v/>
       </c>
+      <c r="E1" t="str">
+        <v>May-24</v>
+      </c>
+      <c r="F1" t="str">
+        <v/>
+      </c>
+      <c r="G1" t="str">
+        <v/>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -434,6 +446,15 @@
         <v>Rate</v>
       </c>
       <c r="D2" t="str">
+        <v>Value</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Qty</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Rate</v>
+      </c>
+      <c r="G2" t="str">
         <v>Value</v>
       </c>
     </row>
@@ -450,6 +471,15 @@
       <c r="D3">
         <v>101051468</v>
       </c>
+      <c r="E3">
+        <v>571087</v>
+      </c>
+      <c r="F3" t="str">
+        <v>177.29</v>
+      </c>
+      <c r="G3">
+        <v>101246022</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -464,6 +494,15 @@
       <c r="D4">
         <v>10681581</v>
       </c>
+      <c r="E4">
+        <v>142379.9</v>
+      </c>
+      <c r="F4" t="str">
+        <v>92.05</v>
+      </c>
+      <c r="G4">
+        <v>13105538.64</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -478,6 +517,15 @@
       <c r="D5">
         <v>1164865.8</v>
       </c>
+      <c r="E5">
+        <v>7416.25</v>
+      </c>
+      <c r="F5" t="str">
+        <v>136.27</v>
+      </c>
+      <c r="G5">
+        <v>1010633.4</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -492,6 +540,15 @@
       <c r="D6">
         <v>6068967.0200000005</v>
       </c>
+      <c r="E6">
+        <v>24414.52</v>
+      </c>
+      <c r="F6" t="str">
+        <v>190.45</v>
+      </c>
+      <c r="G6">
+        <v>4649643.27</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -506,6 +563,15 @@
       <c r="D7">
         <v>101246022</v>
       </c>
+      <c r="E7">
+        <v>563965</v>
+      </c>
+      <c r="F7" t="str">
+        <v>167.74</v>
+      </c>
+      <c r="G7">
+        <v>94599326</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -520,6 +586,15 @@
       <c r="D8">
         <v>26939056</v>
       </c>
+      <c r="E8">
+        <v>168227.17</v>
+      </c>
+      <c r="F8" t="str">
+        <v>195.86</v>
+      </c>
+      <c r="G8">
+        <v>32948492</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -534,6 +609,15 @@
       <c r="D9">
         <v>34360</v>
       </c>
+      <c r="E9">
+        <v>4134</v>
+      </c>
+      <c r="F9" t="str">
+        <v>10.00</v>
+      </c>
+      <c r="G9">
+        <v>41340</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -548,6 +632,15 @@
       <c r="D10">
         <v>2.5</v>
       </c>
+      <c r="E10" t="str">
+        <v/>
+      </c>
+      <c r="F10" t="str">
+        <v/>
+      </c>
+      <c r="G10">
+        <v>10.94</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -562,6 +655,15 @@
       <c r="D11">
         <v>4143559</v>
       </c>
+      <c r="E11" t="str">
+        <v/>
+      </c>
+      <c r="F11" t="str">
+        <v/>
+      </c>
+      <c r="G11">
+        <v>4227041</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -576,6 +678,15 @@
       <c r="D12">
         <v>685359</v>
       </c>
+      <c r="E12">
+        <v>8271.5</v>
+      </c>
+      <c r="F12" t="str">
+        <v>74.55</v>
+      </c>
+      <c r="G12">
+        <v>616661</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -590,6 +701,15 @@
       <c r="D13">
         <v>3594644</v>
       </c>
+      <c r="E13">
+        <v>52769.8</v>
+      </c>
+      <c r="F13" t="str">
+        <v>78.99</v>
+      </c>
+      <c r="G13">
+        <v>4168133</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -604,6 +724,15 @@
       <c r="D14">
         <v>125000</v>
       </c>
+      <c r="E14" t="str">
+        <v/>
+      </c>
+      <c r="F14" t="str">
+        <v/>
+      </c>
+      <c r="G14">
+        <v>125000</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -618,6 +747,15 @@
       <c r="D15">
         <v>767579</v>
       </c>
+      <c r="E15" t="str">
+        <v/>
+      </c>
+      <c r="F15" t="str">
+        <v/>
+      </c>
+      <c r="G15">
+        <v>1229816</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -632,6 +770,15 @@
       <c r="D16">
         <v>8423562</v>
       </c>
+      <c r="E16" t="str">
+        <v/>
+      </c>
+      <c r="F16" t="str">
+        <v/>
+      </c>
+      <c r="G16">
+        <v>9011835</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -646,6 +793,15 @@
       <c r="D17">
         <v>9316141</v>
       </c>
+      <c r="E17" t="str">
+        <v/>
+      </c>
+      <c r="F17" t="str">
+        <v/>
+      </c>
+      <c r="G17">
+        <v>10366651</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -660,10 +816,19 @@
       <c r="D18">
         <v>63582.31999999285</v>
       </c>
+      <c r="E18" t="str">
+        <v/>
+      </c>
+      <c r="F18" t="str">
+        <v/>
+      </c>
+      <c r="G18">
+        <v>2789319.370000002</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D18"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G18"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/PAL1.xlsx
+++ b/PAL1.xlsx
@@ -397,9 +397,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="25.83203125" customWidth="1"/>
@@ -407,9 +407,6 @@
     <col min="3" max="3" width="15.83203125" customWidth="1"/>
     <col min="4" max="4" width="15.83203125" customWidth="1"/>
     <col min="5" max="5" width="15.83203125" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" customWidth="1"/>
-    <col min="8" max="8" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -417,21 +414,12 @@
         <v>Particulars</v>
       </c>
       <c r="B1" t="str">
-        <v>Apr-24</v>
+        <v>Jan-25</v>
       </c>
       <c r="C1" t="str">
         <v/>
       </c>
       <c r="D1" t="str">
-        <v/>
-      </c>
-      <c r="E1" t="str">
-        <v>May-24</v>
-      </c>
-      <c r="F1" t="str">
-        <v/>
-      </c>
-      <c r="G1" t="str">
         <v/>
       </c>
     </row>
@@ -446,15 +434,6 @@
         <v>Rate</v>
       </c>
       <c r="D2" t="str">
-        <v>Value</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Qty</v>
-      </c>
-      <c r="F2" t="str">
-        <v>Rate</v>
-      </c>
-      <c r="G2" t="str">
         <v>Value</v>
       </c>
     </row>
@@ -463,22 +442,13 @@
         <v>Opening Stock</v>
       </c>
       <c r="B3">
-        <v>559824</v>
+        <v>594148</v>
       </c>
       <c r="C3" t="str">
-        <v>180.51</v>
+        <v>165.40</v>
       </c>
       <c r="D3">
-        <v>101051468</v>
-      </c>
-      <c r="E3">
-        <v>571087</v>
-      </c>
-      <c r="F3" t="str">
-        <v>177.29</v>
-      </c>
-      <c r="G3">
-        <v>101246022</v>
+        <v>98275045</v>
       </c>
     </row>
     <row r="4">
@@ -486,22 +456,13 @@
         <v>Purchase RM</v>
       </c>
       <c r="B4">
-        <v>114648</v>
+        <v>111581.7</v>
       </c>
       <c r="C4" t="str">
-        <v>93.17</v>
+        <v>94.68</v>
       </c>
       <c r="D4">
-        <v>10681581</v>
-      </c>
-      <c r="E4">
-        <v>142379.9</v>
-      </c>
-      <c r="F4" t="str">
-        <v>92.05</v>
-      </c>
-      <c r="G4">
-        <v>13105538.64</v>
+        <v>10564778.8</v>
       </c>
     </row>
     <row r="5">
@@ -509,22 +470,13 @@
         <v>Purchase Trading</v>
       </c>
       <c r="B5">
-        <v>8390.9</v>
+        <v>9780.65</v>
       </c>
       <c r="C5" t="str">
-        <v>138.82</v>
+        <v>158.81</v>
       </c>
       <c r="D5">
-        <v>1164865.8</v>
-      </c>
-      <c r="E5">
-        <v>7416.25</v>
-      </c>
-      <c r="F5" t="str">
-        <v>136.27</v>
-      </c>
-      <c r="G5">
-        <v>1010633.4</v>
+        <v>1553244.5</v>
       </c>
     </row>
     <row r="6">
@@ -532,22 +484,13 @@
         <v>Purchase Consumables</v>
       </c>
       <c r="B6">
-        <v>28885</v>
+        <v>43825.59</v>
       </c>
       <c r="C6" t="str">
-        <v>210.11</v>
+        <v>191.32</v>
       </c>
       <c r="D6">
-        <v>6068967.0200000005</v>
-      </c>
-      <c r="E6">
-        <v>24414.52</v>
-      </c>
-      <c r="F6" t="str">
-        <v>190.45</v>
-      </c>
-      <c r="G6">
-        <v>4649643.27</v>
+        <v>8384726.6</v>
       </c>
     </row>
     <row r="7">
@@ -555,22 +498,13 @@
         <v>Closing Stock</v>
       </c>
       <c r="B7">
-        <v>571087</v>
+        <v>577154</v>
       </c>
       <c r="C7" t="str">
-        <v>177.29</v>
+        <v>165.26</v>
       </c>
       <c r="D7">
-        <v>101246022</v>
-      </c>
-      <c r="E7">
-        <v>563965</v>
-      </c>
-      <c r="F7" t="str">
-        <v>167.74</v>
-      </c>
-      <c r="G7">
-        <v>94599326</v>
+        <v>95377832</v>
       </c>
     </row>
     <row r="8">
@@ -578,22 +512,13 @@
         <v>Sales</v>
       </c>
       <c r="B8">
-        <v>135064.01</v>
+        <v>177150.8</v>
       </c>
       <c r="C8" t="str">
-        <v>199.45</v>
+        <v>208.01</v>
       </c>
       <c r="D8">
-        <v>26939056</v>
-      </c>
-      <c r="E8">
-        <v>168227.17</v>
-      </c>
-      <c r="F8" t="str">
-        <v>195.86</v>
-      </c>
-      <c r="G8">
-        <v>32948492</v>
+        <v>36848332</v>
       </c>
     </row>
     <row r="9">
@@ -601,27 +526,18 @@
         <v>Waste</v>
       </c>
       <c r="B9">
-        <v>3436</v>
+        <v>5060</v>
       </c>
       <c r="C9" t="str">
         <v>10.00</v>
       </c>
       <c r="D9">
-        <v>34360</v>
-      </c>
-      <c r="E9">
-        <v>4134</v>
-      </c>
-      <c r="F9" t="str">
-        <v>10.00</v>
-      </c>
-      <c r="G9">
-        <v>41340</v>
+        <v>50600</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Other Income</v>
+        <v>GST Refund</v>
       </c>
       <c r="B10" t="str">
         <v/>
@@ -629,22 +545,13 @@
       <c r="C10" t="str">
         <v/>
       </c>
-      <c r="D10">
-        <v>2.5</v>
-      </c>
-      <c r="E10" t="str">
-        <v/>
-      </c>
-      <c r="F10" t="str">
-        <v/>
-      </c>
-      <c r="G10">
-        <v>10.94</v>
+      <c r="D10" t="str">
+        <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Direct Expenses</v>
+        <v>Other Income</v>
       </c>
       <c r="B11" t="str">
         <v/>
@@ -653,113 +560,68 @@
         <v/>
       </c>
       <c r="D11">
-        <v>4143559</v>
-      </c>
-      <c r="E11" t="str">
-        <v/>
-      </c>
-      <c r="F11" t="str">
-        <v/>
-      </c>
-      <c r="G11">
-        <v>4227041</v>
+        <v>28147.32</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>In-House Fabrication</v>
-      </c>
-      <c r="B12">
-        <v>6664.2</v>
+        <v>Direct Expenses</v>
+      </c>
+      <c r="B12" t="str">
+        <v/>
       </c>
       <c r="C12" t="str">
-        <v>102.84</v>
+        <v/>
       </c>
       <c r="D12">
-        <v>685359</v>
-      </c>
-      <c r="E12">
-        <v>8271.5</v>
-      </c>
-      <c r="F12" t="str">
-        <v>74.55</v>
-      </c>
-      <c r="G12">
-        <v>616661</v>
+        <v>4150113</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Fabrication</v>
-      </c>
-      <c r="B13">
-        <v>45580.5</v>
+        <v>GST Refund</v>
+      </c>
+      <c r="B13" t="str">
+        <v/>
       </c>
       <c r="C13" t="str">
-        <v>78.86</v>
-      </c>
-      <c r="D13">
-        <v>3594644</v>
-      </c>
-      <c r="E13">
-        <v>52769.8</v>
-      </c>
-      <c r="F13" t="str">
-        <v>78.99</v>
-      </c>
-      <c r="G13">
-        <v>4168133</v>
+        <v/>
+      </c>
+      <c r="D13" t="str">
+        <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Deprecation</v>
-      </c>
-      <c r="B14" t="str">
-        <v/>
+        <v>In-House Fabrication</v>
+      </c>
+      <c r="B14">
+        <v>9344.7</v>
       </c>
       <c r="C14" t="str">
-        <v/>
+        <v>76.75</v>
       </c>
       <c r="D14">
-        <v>125000</v>
-      </c>
-      <c r="E14" t="str">
-        <v/>
-      </c>
-      <c r="F14" t="str">
-        <v/>
-      </c>
-      <c r="G14">
-        <v>125000</v>
+        <v>717244</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Indirect Expenses</v>
-      </c>
-      <c r="B15" t="str">
-        <v/>
+        <v>Fabrication</v>
+      </c>
+      <c r="B15">
+        <v>74639.2</v>
       </c>
       <c r="C15" t="str">
-        <v/>
+        <v>84.15</v>
       </c>
       <c r="D15">
-        <v>767579</v>
-      </c>
-      <c r="E15" t="str">
-        <v/>
-      </c>
-      <c r="F15" t="str">
-        <v/>
-      </c>
-      <c r="G15">
-        <v>1229816</v>
+        <v>6280942</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Direct Cost</v>
+        <v>Deprecation</v>
       </c>
       <c r="B16" t="str">
         <v/>
@@ -768,21 +630,12 @@
         <v/>
       </c>
       <c r="D16">
-        <v>8423562</v>
-      </c>
-      <c r="E16" t="str">
-        <v/>
-      </c>
-      <c r="F16" t="str">
-        <v/>
-      </c>
-      <c r="G16">
-        <v>9011835</v>
+        <v>125000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Total Cost</v>
+        <v>Indirect Expenses</v>
       </c>
       <c r="B17" t="str">
         <v/>
@@ -791,44 +644,54 @@
         <v/>
       </c>
       <c r="D17">
-        <v>9316141</v>
-      </c>
-      <c r="E17" t="str">
-        <v/>
-      </c>
-      <c r="F17" t="str">
-        <v/>
-      </c>
-      <c r="G17">
-        <v>10366651</v>
+        <v>1530962</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
+        <v>Direct Cost</v>
+      </c>
+      <c r="B18" t="str">
+        <v/>
+      </c>
+      <c r="C18" t="str">
+        <v/>
+      </c>
+      <c r="D18">
+        <v>11148299</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Total Cost</v>
+      </c>
+      <c r="B19" t="str">
+        <v/>
+      </c>
+      <c r="C19" t="str">
+        <v/>
+      </c>
+      <c r="D19">
+        <v>12804261</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
         <v>Profit A</v>
       </c>
-      <c r="B18" t="str">
-        <v/>
-      </c>
-      <c r="C18" t="str">
-        <v/>
-      </c>
-      <c r="D18">
-        <v>63582.31999999285</v>
-      </c>
-      <c r="E18" t="str">
-        <v/>
-      </c>
-      <c r="F18" t="str">
-        <v/>
-      </c>
-      <c r="G18">
-        <v>2789319.370000002</v>
+      <c r="B20" t="str">
+        <v/>
+      </c>
+      <c r="C20" t="str">
+        <v/>
+      </c>
+      <c r="D20">
+        <v>722855.4200000092</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G18"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D20"/>
   </ignoredErrors>
 </worksheet>
 </file>